--- a/data/hotels_by_city/Dallas/Dallas_shard_180.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_180.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>francism942018</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>curtis418</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r574187100-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>jeff77664</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r573258623-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>Stayed here one night in March as part of vacation.  Got a 2nd floor room and had to use stairs to go up (didn't have working elevator).  Also most Days Inn have creamers/milk for the breakfast but this one did not.  The service desk people were not good and only seemed to care about passing the day by.Overall, not great from a Days Inn perspective.</t>
   </si>
   <si>
+    <t>AnnieTaylor06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r564454020-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>perez118</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r548140272-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Kevin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r529474667-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>YaHuckleberry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r512385989-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>barrydeniseb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r512286108-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>andreamQ3329EP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r505301988-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t>So me and my girlfriend have these spontaneous moments where we just get a room so we've been to a couple of rooms so far this one has been the worst! first off the lady at the front desk was so rude  that I literally wanted to punch  her in the face she was not courteous at all  she didn't say thank you or didn't say please we had made the reservation online and when we got there she did not even give us  A reason to why we were not able to get the room that we had reserved online she just went in the back and came back five minutes later and said that the manager said there was no other rooms available so  we ended up having to upgrade getting the room with the Jacuzzi in it just to find out that the Jacuzzi didn't work even though we paid $130 to stay there  on top of that the  so called high-speed Internet did not work  I couldn't even connect my chrome cast to the TV because the Internet signal was so weak  then I tried to make a phone call with their phone and the  The phone didn't even have a line it was just there for decoration  The light fixtures were missing and to top it all off the whole entire night we heard banging from the room upstairs  in the morning when we tried... So me and my girlfriend have these spontaneous moments where we just get a room so we've been to a couple of rooms so far this one has been the worst! first off the lady at the front desk was so rude  that I literally wanted to punch  her in the face she was not courteous at all  she didn't say thank you or didn't say please we had made the reservation online and when we got there she did not even give us  A reason to why we were not able to get the room that we had reserved online she just went in the back and came back five minutes later and said that the manager said there was no other rooms available so  we ended up having to upgrade getting the room with the Jacuzzi in it just to find out that the Jacuzzi didn't work even though we paid $130 to stay there  on top of that the  so called high-speed Internet did not work  I couldn't even connect my chrome cast to the TV because the Internet signal was so weak  then I tried to make a phone call with their phone and the  The phone didn't even have a line it was just there for decoration  The light fixtures were missing and to top it all off the whole entire night we heard banging from the room upstairs  in the morning when we tried to  to file a complaint about  The upstairs banging the whole night the same lady that checked us in was there so obviously she was very rude and we got nowhere overall experience never going again More</t>
   </si>
   <si>
+    <t>Natalie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r500686469-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t>This place is filthy. Not to mention run by complete morons. We made a reservation through Expedia and when we showed up at 1am on a Monday night they hassled us for over an hour insisting that the reservation had been cancelled and that we must pay again. Even with proof on our phone and a bank statement showing that the funds had been withdrawn we still had to wait for the poor harassed clerk to figure it out. When the manager finally did show up he was hauling a baby in one hand and a six pack of 40's in the other.. at 1am on a Monday. Way to keep it classy, Mesquite. More</t>
   </si>
   <si>
+    <t>JAMES D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r487150440-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>brettb615</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r476934246-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -375,6 +411,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>jamie11aderson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r473916411-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -393,6 +432,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Rachel D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r470404311-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -411,6 +453,9 @@
     <t>We will probably NEVER book another room here EVER again. First off, they cancelled our reservation without our permission...we do want to say thank you to yasenia (can't remember her name ) for going above &amp; beyond to make sure we got it back! We were also unhappy with the other young lady and her attitude, i pushed the bell several times before she came to the desk. Also, there was no knobs on the air conditioners. The other rooms i booked were messed up. The breakfast was cold &amp; you had to warm it up in the microwave! The kids were in the pool when the ceiling started leaking and almost falling in on them. Our other families tv didn't work, and one almost didn't get their deposit back bc of ONE missing wash rag, they didn't use! Some of the bathrooms in the rooms were nasty, and they acted like they didn't want to give us extra blankets and sheets for the pull out bed.More</t>
   </si>
   <si>
+    <t>jake w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r459520062-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -429,6 +474,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Anthony S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r458939123-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -444,6 +492,9 @@
     <t>Worst breakfast when compared to others daysinn locations. The guy at the desk doesnt speak properly on the phone and gives vague answers. The wifi never works properly. They are all bunch of idiots managing the hotel. Only the girl next day morning at the front desk was helpful.</t>
   </si>
   <si>
+    <t>Dave R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r435305136-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -465,6 +516,9 @@
     <t>This Days Inn is the worst hotel we  ever stayed at.  We arrived at the hotel at 1:45 and told we could not check in until 2pm (OK).  We came back at 4pm and just dropped our bags off and went on to our planned event.  We did not return until at 10PM.  OK the desk is only open from 6am to 10PM.,... so they are closed.  We had requested a NON-smoking room and the sign in the room said no smoking.  BUT the last quest must have been smoking as the room smelled of cigarette butts.  The wall electrical socket next to the bed night stand had been pulled out of the wall.  VERY DANGEROUS.  The refrigerator and microwave had been unplugged and I have to move the chest of drawers to plug them in.  The chair in the room had cigarette burns in it.  The last quest towels had not been picked up and were laying on the bathroom floor.  We shared one clean towel between us to bathe.  Calls to the front desk went unanswered as the front desk was closed. We went to check out at 10AM the next day and there was still no one at the front desk.  DONT STAY AT THIS DAYS INN, it must be the worst in the Nation.  I also contacted Days Inn Corporate to let them know how bad the place is....More</t>
   </si>
   <si>
+    <t>jhockson48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r431831123-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -480,6 +534,9 @@
     <t>we had stay so many times and to start with customer service check in to breakfast and check out, awesome service, great staff, clean rooms, indoor pool and exceptional quality for the price. Will definitely stay here again.</t>
   </si>
   <si>
+    <t>CamColl0401</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r431479786-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -501,6 +558,9 @@
     <t>The RED FLAG to problems with this hotel was the sign on the wall behind the front desk:  No Refunds.  They charge your card when you check in, not when you check out.  This hotel appears to be owned by foreigners.  The whole family seems to live there.  I don't know if they all smoke something strange smelling or cook in their rooms with weird spices, but the ground floor smells bad.  All their room doors are propped open at night.  They counteract with chemical sprays to mask the smell.  They also sprayed my room heavily.  I am asthmatic so that was a big problem.  Twice I asked the front desk that no sprays be used in my room, and was ignored twice.  The only solution was to keep the "Do Not Disturb" sign on the door and go to the desk when we needed something.I really wish I'd listened to my instincts and gone elsewhere!  If I could have given it no stars, I would have!More</t>
   </si>
   <si>
+    <t>kk55231</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r381508760-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -519,6 +579,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Faythe2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r380712769-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -534,6 +597,9 @@
     <t>I would have given this hotel 5 stars if the pool was open. I only booked this hotel because of the pool and it was closed on the day of my hotel stay which made me mad because I could of booked another hotel without a pool for $20 cheaper. However, the hotel was ok the room was clean, AC cold, shower hot, bed soft, and the breakfast was more than expected. The breakfast bar had eggs, meat, waffles, juice, coffee, fruit and bread. If they can keep the pool open it would be a nice stop for the right price.</t>
   </si>
   <si>
+    <t>lisafT6028AW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r359560475-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -552,6 +618,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Hailey K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r333192309-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -570,6 +639,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>trulyblessed2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r331248504-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -588,6 +660,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>RozarionAnders</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r308962825-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -606,6 +681,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Doc R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r308609845-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -622,6 +700,9 @@
   </si>
   <si>
     <t>The hotel is decent but needs renovation. Its clean but certain smell fills the hallway and the main stairway. A lot of "pot" smoke smell in the hallway. Rooms are decent, bathroom is outdated. Towels are gross! So bring your own! The safe don't work, there's no iron or board like they said. Fridge and microwave is okay. Safe doesnt work. Internet sucks, gets you disconnected all the time. Very noisy at night. The hotel apparently doesn't care if 10 people stay in a room. Lots of doors banging, and people cursing on the hallway at night. The good side, pool is nice, clean and warm, jacuzzi/hot tub don't work like it should. Breakfast is decent but not impressive. Coffee is good. Lots of fastfood around. No online accomodation per front desk girl. You have to call to get what you want. Lastly, NO, i will not stay here again.More</t>
+  </si>
+  <si>
+    <t>RickDParker</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r289350640-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
@@ -649,6 +730,9 @@
 Check in: Check in was quick.  I was asked for my credit card, however, the person checking me in had not given me the total before asking for payment.  The total was correct, so I gave her my credit card.  The first thing she did was run the card through a card scanner, so that she had a copy of the credit card.  This was the first time that I have seen a card scanned.  Then they proceeded to swipe the card, which failed.  Then the put the card in a garbage bag and tried many additional times.  Then she went and wrapped the card in receipt paper and the card finally worked.  Please note, this card was used prior to and after check in with different vendors with no issues, but hey, we are finally checked in.  I am told that there is only one entrance, which was through the lobby, there was no elevators, so we would need to come in, walk to the end of the first floor hallway and then walk up stairs to the second floor where we would find our room.  This was a problem.  I booked online.  In the notes section, I clearly stated that the room must be on the 1st floor as my wife is having...This was our first stay at this hotel and we were pleasantly surprised when we arrived.  The hotel appears nice and the rate was reasonable.  Check in: Check in was quick.  I was asked for my credit card, however, the person checking me in had not given me the total before asking for payment.  The total was correct, so I gave her my credit card.  The first thing she did was run the card through a card scanner, so that she had a copy of the credit card.  This was the first time that I have seen a card scanned.  Then they proceeded to swipe the card, which failed.  Then the put the card in a garbage bag and tried many additional times.  Then she went and wrapped the card in receipt paper and the card finally worked.  Please note, this card was used prior to and after check in with different vendors with no issues, but hey, we are finally checked in.  I am told that there is only one entrance, which was through the lobby, there was no elevators, so we would need to come in, walk to the end of the first floor hallway and then walk up stairs to the second floor where we would find our room.  This was a problem.  I booked online.  In the notes section, I clearly stated that the room must be on the 1st floor as my wife is having knee issues and walking up the stairs wasn't an option.  The clerk, a little upset, explains that "they don't see the notes or special requests sections on"The room was clean, which is a big plus in our eyes.  We got settled in and then noticed the first problem, the valve inside the commode was only dripping after each flush, so it could take up to 30 minutes to refill the tank.  This was going to be a problem, but now it is after 10PM, so we opt to wait until morning to have the issue addressed.The next issue was the mini refrigerator.  The refrigerator kept everything cool, however, at night it would start rattling.  I'm not sure why it only happened at night, it was loud enough to bother us.The next issue was with the restroom door.  This was a nice, sturdy door, however, the steel frame was intentionally broken on the upper right hand corner because the foundation had shifted and the door would no longer close.  The door swings open unless it is closed.  If you try to close the door, it makes a loud squeaking sound.  This is loud enough to wake anyone in the room who is sleeping.The next morning, we slept in until 9:00 AM, when House Keeping knocked on the door.  We had not planned on sleeping in this late.  We missed...More</t>
   </si>
   <si>
+    <t>Aaahrrahlee👢💙</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r286921692-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -664,6 +748,9 @@
     <t>My boyfriend and I came to our hometown to visit our family for a week and this motel had somewhat reasonable weekly rates so we stayed there. They offer complimentary breakfast in the morning which I must admit was pretty good. Housekeeping is very friendly and it's located right off highway 635 which is very convenient.</t>
   </si>
   <si>
+    <t>lissalou06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r279387013-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -682,6 +769,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Guðmundur G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r274215496-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -700,6 +790,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Bryan D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r261461975-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -721,6 +814,9 @@
     <t>The hotel is in a decent location with lots of food choices within a reasonable distance.  The price was very competitive, unfortunately you get what you paid for.  My baby found food from a previous occupant which was disturbing, otherwise it was decently clean.  Two towels for a double bed room.  The iron is attached to the ironing board making it unwieldy, but at least there was an iron I guess.Although they promise breakfast, assume no breakfast.  The eggs were gone by 8 am (breakfast goes until 9.)  They wouldn't make more, said it takes too long (scrambled eggs).  The next day they didn't even offer eggs, and had just left the muffins and such that had been left over from the previous morning.The pool heater was working but make sure you are supervising your kids closely.  The emergency phone in the pool area to call out was disconnected and in poor condition.More</t>
   </si>
   <si>
+    <t>Mildred A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r245170824-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -742,6 +838,9 @@
     <t>I work for a Wyndham franchise and was told that if I made a reservation through my portal on the Internet that the Wyndham motels and hotels would honor what they said in there paperwork of  a employee discount and this 2x' in the last month that the motels in mesquite texas do not honor the employee discount from windham if you are an employee you should get some kind of discount days inn did not so makes you think they honor anything they say I will never stay at days inn in mesquite ever even if they were the last motel in Texas very disappointed in the staff at that motel.More</t>
   </si>
   <si>
+    <t>Fletcher A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r240285173-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -760,6 +859,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Angela R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r237453560-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -781,6 +883,9 @@
     <t>Live in the Dallas area.  After a big storm, I went there to stay because my electricity had been out.  Not only did they charge me $101 for a night stay, but no iron in room.  Ask for an iron and was told "we don't have one."  Had to go to work wrinkled.  Made a complaint.  Management never called back until I called the corporate office.  Manager had staff call and offer me 25% back on room rate.  I told them to keep it and buy an iron for the room.  They offered me 25% back which is the additional price they charged me.  They will overcharge you and dismiss your complaints until you call the corporate office.  Even in a storm!!!!!  Next, I will try the Motel 6 next door.More</t>
   </si>
   <si>
+    <t xml:space="preserve">Erulase </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r224181399-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -796,6 +901,9 @@
     <t xml:space="preserve">I was staying with my father and the front desk lady was so rude and became even more rude when I had two guest come over just to swim for the afternoon. She kept telling us no but then kept changing her words around and was so confusing. We just left since she was to hard to work with. The bathrooms are also terrible and the rooms smell like poop.  </t>
   </si>
   <si>
+    <t>Betty H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r201617366-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -814,6 +922,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>nanapsmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r196218021-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -832,6 +943,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Search M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r187747503-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -853,6 +967,9 @@
     <t>My buddy made a reservation at hotel.com for us at this motel when we found ourselves too tired to make it back to Austin. I noticed the LONG disclaimer at the check-in desk which ended with 'no refund'. We asked for a no smoking room, which it might have been, but the hallway smelled of smoke. He told us that it was the last room available in the motel. The first problem was the phone with no dial tone. Then the TV remote wouldn't work. I went to the front desk and complained. The clerk gave me another one and told me that I should jiggle the telephone cables to see if there was a loose connection. I tried his suggestions with no change; the new remote also failed to change the one channel I was able to get on the television (something about naked survivalists in Alaska...maybe. I couldn't turn up the volume either.) I went back to the front desk where I believe the clerk took the remote from me, went to the back room with it, and brought it right back to me. After yet another trip to the front desk with the remote by my buddy and a request for a refund, we decided that it wasn't comfortable. He made a deal with hotel.com for the price of the room and we drove home.More</t>
   </si>
   <si>
+    <t>Dina G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r177578263-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -862,6 +979,9 @@
     <t>09/17/2013</t>
   </si>
   <si>
+    <t>linawatkins86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r166213523-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -880,6 +1000,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Trent S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r166110598-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -898,6 +1021,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Lora R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r160613294-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -916,6 +1042,9 @@
     <t>To start off the front desk person was very rude during check-in. Walking to the room I noticed the halls reeked of cigarette smoke. Entered the room, it was burning up, turned on the AC and a musty/funky smell came out of the AC. I was just going to deal with it since I just needed some sleep. Got into bed and the covers were itchy. Still, I was going to deal with it. THEN! Out pops the largest beetle I have ever seen...IN THE BED! Caught the beetle for proof to show to the front desk person, they wanted to put me in another room, and I refused. The front desk was very irritated and NEVER OFFERED AN APOLOGY! I called the online booking site and they refunded my money and APOLOGIZED. Also the only vending machine and ice machine is on the first floor and there is no elevator. I wish there were a "0" rating because that would be more appropriate for this hotel.More</t>
   </si>
   <si>
+    <t>Cristy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r155298061-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -934,6 +1063,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Georgia Marie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r154546424-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1081,9 @@
     <t xml:space="preserve">If I decide to stay in another hotel then the Days Inn would be that place. This place is nice , neat and clean. The hotel staff was great , they are alway's there for anything that you may need for you room. There are good eating places near by, they are so close that you can walk to them . The shopping mall right off the highway 635N and there are other shopping areas that are close by ad well. </t>
   </si>
   <si>
+    <t>Denise M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r153367621-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -970,6 +1105,9 @@
     <t>Stayed at two different Wyndham hotels during this trip. The first had great reviews and I do not know where they came from... it was filthy and just plain gross.The Days Inn Mesquite was surface clean but looks like deep cleaning is not on the rotation. First night we killed three roaches, fortunately, after that we did not see any more. Stayed at this same hotel several years ago and it appears nothing has been upgraded since then... actually things have been down-graded! Continental breakfast left a lot to be desired -- very little to choose from and coffee was room temp most mornings. They even had salt &amp; pepper packets out and not one item that would require seasoning. On the positive side -- staff was friendly and overall stay was comfortable.More</t>
   </si>
   <si>
+    <t>stacy53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r149513687-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -988,6 +1126,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Judy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r144400525-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1009,6 +1150,9 @@
     <t>The room was, at first glance, clean and not bad at all.  We thought we got a bargain.  Then the longer we stayed the more we noticed:  the coffee pot was filthy, the room was a little shabby and worn (holes/patches in wall, bathroom fixtures had seen better days, lamp shades needed to be replaced), ironing board was really dirty, the bathtub did not drain properly, the toilet did not flush without holding the handle down for a minute, some of the towels were stained, the WORST breakfast we ever had (only had once, then went elsewhere on the other days), the coffee (even when fresh brewed was COLD), the spread for breakfast was not very appetizing @ all, and tasted even worse, and the worst part, I killed SEVERAL roaches in our room. But, on the upside, the staff were very friendly and helpful and the bed was comfortable. Wished the rooms and breakfast matched the service and hospitality!More</t>
   </si>
   <si>
+    <t>Travelceej</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r121394284-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1024,6 +1168,9 @@
     <t xml:space="preserve">Clean rooms, good parking, very friendly staff. Overall great. Would totally recommend! </t>
   </si>
   <si>
+    <t>Yandelluny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r116172437-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1039,6 +1186,9 @@
     <t xml:space="preserve">It was a great hotel in a good location a lot of different places to eat around the area and a rental center . Good place </t>
   </si>
   <si>
+    <t>TEJ7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r115994084-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1057,6 +1207,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>unhappy1970</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r110544175-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1075,6 +1228,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>goingplaces1973</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r83886758-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1249,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>miraclepie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r71993218-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1114,6 +1273,9 @@
     <t>We were going to see the Mesquite Rodeo, so in terms of location it was fantastic. It was also surrounded by many different restaurants, so you had lots of choice for food. However, I'll agree with another poster that it didn't have an elevator, which I was a bit perturbed by, as we are paying $70+ the breakfast was alright, a selection of cold cereals, toast, and donuts... The rooms themselves were very clean, and big. It almost looks like the lobby had a great deal of refurbishments, but they hadn't done the hallways or the rooms. The hallways were quite shabby. I also didn't like the location of their free internet booth in the lobby. It was much too high, making it difficult to type anything on. The hairdryer as well didn't have a back on it, so my hair got stuck a few times. The front desk staff were excellent, they printed out directions from mapquest for us, and were overall very friendly.More</t>
   </si>
   <si>
+    <t>terrysol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r37464300-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1294,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>TeeRoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r30766899-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1151,6 +1316,9 @@
   </si>
   <si>
     <t>I stayed there for 4 days and three nights that I'll never get back! This place was sorta like the, "Twilight Zone". The guy who checked me in was scary-weird. Not a "people person". And he doesn't listen. I must have said I wanted a non-smoking room 3 times before he got it! The first night management knocks HARD on my door, and woke me up. I got a follow-up phone call saying they needed to get inside my room the check something. Not sure what they were looking for! I refused to let them in. The WiFi was spotty, weak, (if your lucky to even get the signal) and they turned if off after 7:00pm each night. Basically useless! The room (as well as the entire hotel) needed a 21st century makeover, and it smelled! The fire detection equipment inside the room wasn't even totally installed. The TV reception was snowy on 1/3 of the channels. They didn't clean my room on one day. And the next day all they did was make-up my bed, empty the trash, and gave me new towels. They never vacuumed, etc. There is no bar or restaurant in the facility, or even nearby. Never again! I'll never even stay in another Days Inn, anywhere!More</t>
+  </si>
+  <si>
+    <t>dbolt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r10004643-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
@@ -1180,6 +1348,9 @@
 He quickly offered to give us the "jacuzzi" room, which was non-smoking (I guess they did have some left?). It was on the first floor, and had a big jacuzzi in the room, which sounds romantic, but  all it did was make...We booked the Day's Inn in Mequite on travelocity with our airfare and car. We had a nearby conference and that hotel was full. We thought that at $60 a night it was going to be budget, but not bottom of the food chain.Yikes...All they had were smoking rooms (eventhough we had asked for NON-smoking on Travelocity) The motel said that Travelocity made that mistake commonly?So we tried the first room, up a  flight a stairs. We had to get the manager to work the card reader to open the door, so he was there when we all entered...the very smoky room. He offered to spray it with room freshener, but he warned that maybe we should step outside, since it was going to be strong. All it did was cover the smoke with foul sticky odor.  BUT the capper was that the new room's toilet was, uhm...full, and the manager tried flushing and the handle did not work! Mind you, we had only just walked into the room, so who knows how long the "deposit" had been in the toilet. I would have assumed that would have been a large item on the maid's checklist?He quickly offered to give us the "jacuzzi" room, which was non-smoking (I guess they did have some left?). It was on the first floor, and had a big jacuzzi in the room, which sounds romantic, but  all it did was make the carpet smell musty!  Toilet worked fine, but the sink would not drain.  Back to the front desk and on the phone to other places nearby. We ended up at the Courtyard Marriott down the road, which was very nice and only $103. I guess you get what you pay for.More</t>
   </si>
   <si>
+    <t>j_kelly76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r6606772-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1196,6 +1367,9 @@
   </si>
   <si>
     <t>January 2007</t>
+  </si>
+  <si>
+    <t>Lovetotravelthebeach</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r5317533-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
@@ -1721,43 +1895,47 @@
       <c r="A2" t="n">
         <v>38977</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>129723</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1771,50 +1949,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38977</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>129724</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1834,50 +2016,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38977</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>99588</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1897,50 +2083,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38977</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>129725</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1954,50 +2144,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38977</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>129726</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2015,50 +2209,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38977</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>3788</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
         <v>83</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" t="s">
-        <v>78</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -2078,48 +2276,52 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38977</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>129727</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2143,50 +2345,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38977</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>129728</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -2210,50 +2416,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38977</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>129729</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>96</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -2277,50 +2487,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38977</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>18852</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2334,50 +2548,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38977</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>129730</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2395,35 +2613,39 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38977</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>129731</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -2431,10 +2653,10 @@
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2455,51 +2677,52 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38977</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>129732</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2519,50 +2742,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38977</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>23853</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2576,50 +2803,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38977</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>129733</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2639,50 +2870,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38977</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7595</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2702,50 +2937,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38977</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>7041</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2765,41 +3004,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38977</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>129734</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -2818,50 +3061,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38977</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>129735</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2875,50 +3122,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38977</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>129736</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2936,50 +3187,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38977</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>129737</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2997,50 +3252,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38977</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>129738</v>
+      </c>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3062,50 +3321,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38977</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>129739</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3125,50 +3388,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38977</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>129740</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="J25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3188,50 +3455,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38977</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>129741</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3255,50 +3526,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38977</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>129742</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="J27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3312,50 +3587,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38977</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>129743</v>
+      </c>
+      <c r="C28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3375,50 +3654,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38977</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>129744</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="O29" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3432,50 +3715,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38977</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>129745</v>
+      </c>
+      <c r="C30" t="s">
+        <v>242</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="J30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3489,50 +3776,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38977</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>129746</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="J31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3546,50 +3837,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38977</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>110381</v>
+      </c>
+      <c r="C32" t="s">
+        <v>256</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="J32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3607,50 +3902,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38977</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>129747</v>
+      </c>
+      <c r="C33" t="s">
+        <v>264</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3668,50 +3967,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38977</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>129748</v>
+      </c>
+      <c r="C34" t="s">
+        <v>272</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="J34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3735,50 +4038,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38977</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -3798,41 +4105,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38977</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>129749</v>
+      </c>
+      <c r="C36" t="s">
+        <v>287</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="J36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
@@ -3861,50 +4172,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38977</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>9044</v>
+      </c>
+      <c r="C37" t="s">
+        <v>293</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="J37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="K37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="O37" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -3928,50 +4243,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38977</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>129750</v>
+      </c>
+      <c r="C38" t="s">
+        <v>300</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="J38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3995,50 +4314,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38977</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>129751</v>
+      </c>
+      <c r="C39" t="s">
+        <v>307</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="J39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -4062,35 +4385,39 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38977</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>129752</v>
+      </c>
+      <c r="C40" t="s">
+        <v>315</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="J40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4098,10 +4425,10 @@
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4122,51 +4449,52 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38977</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>129753</v>
+      </c>
+      <c r="C41" t="s">
+        <v>319</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4190,50 +4518,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38977</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>129754</v>
+      </c>
+      <c r="C42" t="s">
+        <v>326</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="J42" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="K42" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4257,50 +4589,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38977</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>37001</v>
+      </c>
+      <c r="C43" t="s">
+        <v>333</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="J43" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4324,50 +4660,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38977</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>129755</v>
+      </c>
+      <c r="C44" t="s">
+        <v>340</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="J44" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4391,41 +4731,45 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38977</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>129756</v>
+      </c>
+      <c r="C45" t="s">
+        <v>347</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="J45" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
@@ -4454,50 +4798,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38977</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>12875</v>
+      </c>
+      <c r="C46" t="s">
+        <v>353</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="J46" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="K46" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4521,50 +4869,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38977</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>129757</v>
+      </c>
+      <c r="C47" t="s">
+        <v>361</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="J47" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="K47" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="L47" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4588,50 +4940,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38977</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>5548</v>
+      </c>
+      <c r="C48" t="s">
+        <v>368</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="J48" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -4655,41 +5011,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38977</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>129758</v>
+      </c>
+      <c r="C49" t="s">
+        <v>376</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="J49" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="K49" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="L49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -4718,41 +5078,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38977</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>129759</v>
+      </c>
+      <c r="C50" t="s">
+        <v>382</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="J50" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="K50" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -4781,50 +5145,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38977</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>129760</v>
+      </c>
+      <c r="C51" t="s">
+        <v>388</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="J51" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="K51" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="L51" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -4844,50 +5212,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38977</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>129761</v>
+      </c>
+      <c r="C52" t="s">
+        <v>395</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="J52" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="K52" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="L52" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -4909,50 +5281,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38977</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>129762</v>
+      </c>
+      <c r="C53" t="s">
+        <v>402</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="J53" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="K53" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -4976,50 +5352,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>38977</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>129763</v>
+      </c>
+      <c r="C54" t="s">
+        <v>409</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="J54" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="K54" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="O54" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5043,50 +5423,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>38977</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>129764</v>
+      </c>
+      <c r="C55" t="s">
+        <v>417</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5110,50 +5494,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>38977</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>129765</v>
+      </c>
+      <c r="C56" t="s">
+        <v>424</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="J56" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="K56" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="L56" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5177,50 +5565,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>38977</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>129766</v>
+      </c>
+      <c r="C57" t="s">
+        <v>432</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="J57" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="K57" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5244,50 +5636,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>38977</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>129767</v>
+      </c>
+      <c r="C58" t="s">
+        <v>440</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="J58" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="K58" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="L58" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="O58" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5311,50 +5707,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>38977</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>129768</v>
+      </c>
+      <c r="C59" t="s">
+        <v>447</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="J59" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="K59" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="O59" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -5376,7 +5776,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_180.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_180.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="409">
   <si>
     <t>STR#</t>
   </si>
@@ -150,13 +150,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>francism942018</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r574805242-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r597968229-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>56280</t>
@@ -165,6 +162,48 @@
     <t>124456</t>
   </si>
   <si>
+    <t>597968229</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Don’t do it</t>
+  </si>
+  <si>
+    <t>I would not suggest anyone stay at this location you are better off taking your money to an establishment with competent staff I had a horrible stay here! And the company is trying to make excuses rather than apologize and take fault</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r586303346-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>586303346</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Definitely wouldn’t stay here again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First off, we had heavy luggage bc we were in town for a baseball tournament and needed to take our stuff in. They have a cart to bring it in, but once you get to the stairs (yep... no elevator) we were on our own. The rooms are old looking.  Bedding had holes and the remote for tv didn’t work. I would have rather paid a little more for a nicer hotel, than stay somewhere like this again. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r574805242-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+  </si>
+  <si>
     <t>574805242</t>
   </si>
   <si>
@@ -183,10 +222,7 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>curtis418</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r574187100-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r574187100-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>574187100</t>
@@ -204,13 +240,7 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>jeff77664</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r573258623-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r573258623-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>573258623</t>
@@ -225,10 +255,7 @@
     <t>Stayed here one night in March as part of vacation.  Got a 2nd floor room and had to use stairs to go up (didn't have working elevator).  Also most Days Inn have creamers/milk for the breakfast but this one did not.  The service desk people were not good and only seemed to care about passing the day by.Overall, not great from a Days Inn perspective.</t>
   </si>
   <si>
-    <t>AnnieTaylor06</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r564454020-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r564454020-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>564454020</t>
@@ -243,13 +270,7 @@
     <t>This place is filthy. Where are the health inspectors?  Font desk person is rude. No customer service at all. Avoid this place....Obviously a management problem. It should not even be allowed to receive guests.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>perez118</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r548140272-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r548140272-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>548140272</t>
@@ -270,10 +291,7 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Kevin M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r529474667-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r529474667-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>529474667</t>
@@ -291,10 +309,7 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>YaHuckleberry</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r512385989-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r512385989-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>512385989</t>
@@ -312,10 +327,7 @@
     <t>More</t>
   </si>
   <si>
-    <t>barrydeniseb</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r512286108-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r512286108-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>512286108</t>
@@ -330,10 +342,7 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>andreamQ3329EP</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r505301988-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r505301988-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>505301988</t>
@@ -351,10 +360,7 @@
     <t>So me and my girlfriend have these spontaneous moments where we just get a room so we've been to a couple of rooms so far this one has been the worst! first off the lady at the front desk was so rude  that I literally wanted to punch  her in the face she was not courteous at all  she didn't say thank you or didn't say please we had made the reservation online and when we got there she did not even give us  A reason to why we were not able to get the room that we had reserved online she just went in the back and came back five minutes later and said that the manager said there was no other rooms available so  we ended up having to upgrade getting the room with the Jacuzzi in it just to find out that the Jacuzzi didn't work even though we paid $130 to stay there  on top of that the  so called high-speed Internet did not work  I couldn't even connect my chrome cast to the TV because the Internet signal was so weak  then I tried to make a phone call with their phone and the  The phone didn't even have a line it was just there for decoration  The light fixtures were missing and to top it all off the whole entire night we heard banging from the room upstairs  in the morning when we tried... So me and my girlfriend have these spontaneous moments where we just get a room so we've been to a couple of rooms so far this one has been the worst! first off the lady at the front desk was so rude  that I literally wanted to punch  her in the face she was not courteous at all  she didn't say thank you or didn't say please we had made the reservation online and when we got there she did not even give us  A reason to why we were not able to get the room that we had reserved online she just went in the back and came back five minutes later and said that the manager said there was no other rooms available so  we ended up having to upgrade getting the room with the Jacuzzi in it just to find out that the Jacuzzi didn't work even though we paid $130 to stay there  on top of that the  so called high-speed Internet did not work  I couldn't even connect my chrome cast to the TV because the Internet signal was so weak  then I tried to make a phone call with their phone and the  The phone didn't even have a line it was just there for decoration  The light fixtures were missing and to top it all off the whole entire night we heard banging from the room upstairs  in the morning when we tried to  to file a complaint about  The upstairs banging the whole night the same lady that checked us in was there so obviously she was very rude and we got nowhere overall experience never going again More</t>
   </si>
   <si>
-    <t>Natalie G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r500686469-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r500686469-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>500686469</t>
@@ -372,10 +378,7 @@
     <t>This place is filthy. Not to mention run by complete morons. We made a reservation through Expedia and when we showed up at 1am on a Monday night they hassled us for over an hour insisting that the reservation had been cancelled and that we must pay again. Even with proof on our phone and a bank statement showing that the funds had been withdrawn we still had to wait for the poor harassed clerk to figure it out. When the manager finally did show up he was hauling a baby in one hand and a six pack of 40's in the other.. at 1am on a Monday. Way to keep it classy, Mesquite. More</t>
   </si>
   <si>
-    <t>JAMES D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r487150440-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r487150440-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>487150440</t>
@@ -396,10 +399,7 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>brettb615</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r476934246-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r476934246-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>476934246</t>
@@ -411,10 +411,7 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>jamie11aderson</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r473916411-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r473916411-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>473916411</t>
@@ -432,10 +429,7 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>Rachel D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r470404311-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r470404311-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>470404311</t>
@@ -453,10 +447,7 @@
     <t>We will probably NEVER book another room here EVER again. First off, they cancelled our reservation without our permission...we do want to say thank you to yasenia (can't remember her name ) for going above &amp; beyond to make sure we got it back! We were also unhappy with the other young lady and her attitude, i pushed the bell several times before she came to the desk. Also, there was no knobs on the air conditioners. The other rooms i booked were messed up. The breakfast was cold &amp; you had to warm it up in the microwave! The kids were in the pool when the ceiling started leaking and almost falling in on them. Our other families tv didn't work, and one almost didn't get their deposit back bc of ONE missing wash rag, they didn't use! Some of the bathrooms in the rooms were nasty, and they acted like they didn't want to give us extra blankets and sheets for the pull out bed.More</t>
   </si>
   <si>
-    <t>jake w</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r459520062-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r459520062-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>459520062</t>
@@ -474,10 +465,7 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Anthony S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r458939123-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r458939123-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>458939123</t>
@@ -492,10 +480,7 @@
     <t>Worst breakfast when compared to others daysinn locations. The guy at the desk doesnt speak properly on the phone and gives vague answers. The wifi never works properly. They are all bunch of idiots managing the hotel. Only the girl next day morning at the front desk was helpful.</t>
   </si>
   <si>
-    <t>Dave R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r435305136-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r435305136-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>435305136</t>
@@ -516,10 +501,7 @@
     <t>This Days Inn is the worst hotel we  ever stayed at.  We arrived at the hotel at 1:45 and told we could not check in until 2pm (OK).  We came back at 4pm and just dropped our bags off and went on to our planned event.  We did not return until at 10PM.  OK the desk is only open from 6am to 10PM.,... so they are closed.  We had requested a NON-smoking room and the sign in the room said no smoking.  BUT the last quest must have been smoking as the room smelled of cigarette butts.  The wall electrical socket next to the bed night stand had been pulled out of the wall.  VERY DANGEROUS.  The refrigerator and microwave had been unplugged and I have to move the chest of drawers to plug them in.  The chair in the room had cigarette burns in it.  The last quest towels had not been picked up and were laying on the bathroom floor.  We shared one clean towel between us to bathe.  Calls to the front desk went unanswered as the front desk was closed. We went to check out at 10AM the next day and there was still no one at the front desk.  DONT STAY AT THIS DAYS INN, it must be the worst in the Nation.  I also contacted Days Inn Corporate to let them know how bad the place is....More</t>
   </si>
   <si>
-    <t>jhockson48</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r431831123-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r431831123-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>431831123</t>
@@ -534,10 +516,7 @@
     <t>we had stay so many times and to start with customer service check in to breakfast and check out, awesome service, great staff, clean rooms, indoor pool and exceptional quality for the price. Will definitely stay here again.</t>
   </si>
   <si>
-    <t>CamColl0401</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r431479786-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r431479786-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>431479786</t>
@@ -558,10 +537,7 @@
     <t>The RED FLAG to problems with this hotel was the sign on the wall behind the front desk:  No Refunds.  They charge your card when you check in, not when you check out.  This hotel appears to be owned by foreigners.  The whole family seems to live there.  I don't know if they all smoke something strange smelling or cook in their rooms with weird spices, but the ground floor smells bad.  All their room doors are propped open at night.  They counteract with chemical sprays to mask the smell.  They also sprayed my room heavily.  I am asthmatic so that was a big problem.  Twice I asked the front desk that no sprays be used in my room, and was ignored twice.  The only solution was to keep the "Do Not Disturb" sign on the door and go to the desk when we needed something.I really wish I'd listened to my instincts and gone elsewhere!  If I could have given it no stars, I would have!More</t>
   </si>
   <si>
-    <t>kk55231</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r381508760-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r381508760-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>381508760</t>
@@ -579,10 +555,7 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Faythe2014</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r380712769-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r380712769-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>380712769</t>
@@ -597,10 +570,7 @@
     <t>I would have given this hotel 5 stars if the pool was open. I only booked this hotel because of the pool and it was closed on the day of my hotel stay which made me mad because I could of booked another hotel without a pool for $20 cheaper. However, the hotel was ok the room was clean, AC cold, shower hot, bed soft, and the breakfast was more than expected. The breakfast bar had eggs, meat, waffles, juice, coffee, fruit and bread. If they can keep the pool open it would be a nice stop for the right price.</t>
   </si>
   <si>
-    <t>lisafT6028AW</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r359560475-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r359560475-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>359560475</t>
@@ -618,10 +588,7 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Hailey K</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r333192309-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r333192309-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>333192309</t>
@@ -639,10 +606,7 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>trulyblessed2015</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r331248504-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r331248504-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>331248504</t>
@@ -660,10 +624,7 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>RozarionAnders</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r308962825-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r308962825-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>308962825</t>
@@ -681,10 +642,7 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Doc R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r308609845-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r308609845-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>308609845</t>
@@ -702,10 +660,7 @@
     <t>The hotel is decent but needs renovation. Its clean but certain smell fills the hallway and the main stairway. A lot of "pot" smoke smell in the hallway. Rooms are decent, bathroom is outdated. Towels are gross! So bring your own! The safe don't work, there's no iron or board like they said. Fridge and microwave is okay. Safe doesnt work. Internet sucks, gets you disconnected all the time. Very noisy at night. The hotel apparently doesn't care if 10 people stay in a room. Lots of doors banging, and people cursing on the hallway at night. The good side, pool is nice, clean and warm, jacuzzi/hot tub don't work like it should. Breakfast is decent but not impressive. Coffee is good. Lots of fastfood around. No online accomodation per front desk girl. You have to call to get what you want. Lastly, NO, i will not stay here again.More</t>
   </si>
   <si>
-    <t>RickDParker</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r289350640-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r289350640-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>289350640</t>
@@ -719,7 +674,7 @@
   <si>
     <t>This was our first stay at this hotel and we were pleasantly surprised when we arrived.  
 The hotel appears nice and the rate was reasonable.  
-Check in: Check in was quick.  I was asked for my credit card, however, the person checking me in had not given me the total before asking for payment.  The total was correct, so I gave her my credit card.  The first thing she did was run the card through a card scanner, so that she had a copy of the credit card.  This was the first time that I have seen a card scanned.  Then they proceeded to swipe the card, which failed.  Then the put the card in a garbage bag and tried many additional times.  Then she went and wrapped the card in receipt paper and the card finally worked.  Please note, this card was used prior to and after check in with different vendors with no issues, but hey, we are finally checked in.  I am told that there is only one entrance, which was through the lobby, there was no elevators, so we would need to come in, walk to the end of the first floor hallway and then walk up stairs to the second floor where we would find our room.  This was a problem.  I booked online.  In the notes section, I clearly stated that the room must be on the 1st floor as my wife is having...This was our first stay at this hotel and we were pleasantly surprised when we arrived.  The hotel appears nice and the rate was reasonable.  Check in: Check in was quick.  I was asked for my credit card, however, the person checking me in had not given me the total before asking for payment.  The total was correct, so I gave her my credit card.  The first thing she did was run the card through a card scanner, so that she had a copy of the credit card.  This was the first time that I have seen a card scanned.  Then they proceeded to swipe the card, which failed.  Then the put the card in a garbage bag and tried many additional times.  Then she went and wrapped the card in receipt paper and the card finally worked.  Please note, this card was used prior to and after check in with different vendors with no issues, but hey, we are finally checked in.  I am told that there is only one entrance, which was through the lobby, there was no elevators, so we would need to come in, walk to the end of the first floor hallway and then walk up stairs to the second floor where we would find our room.  This was a problem.  I booked online.  In the notes section, I clearly stated that the room must be on the 1st floor as my wife is having knee issues and walking up the stairs wasn't an option.  The clerk, a little upset, explains that "they don't see the notes or special requests sections on"The room was clean, which is a big plus in our eyes.  We got settled in and then noticed the first problem, the valve inside the commode was only dripping after each flush, so it could take up to 30 minutes to refill the tank.  This was going to be a problem, but now it is after 10PM, so we opt to wait until morning to have the issue addressed.The next issue was the mini refrigerator.  The refrigerator kept everything cool, however, at night it would start rattling.  I'm not sure why it only happened at night, it was loud enough to bother us.The next issue was with the restroom door.  This was a nice, sturdy door, however, the steel frame was intentionally broken on the upper right hand corner because the foundation had shifted and the door would no longer close.  The door swings open unless it is closed.  If you try to close the door, it makes a loud squeaking sound.  This is loud enough to wake anyone in the room who is sleeping.The next morning, we slept in until 9:00 AM, when House Keeping knocked on the door.  We had not planned on sleeping in this late.  We missed...MoreShow less</t>
+Check in: Check in was quick.  I was asked for my credit card, however, the person checking me in had not given me the total before asking for payment.  The total was correct, so I gave her my credit card.  The first thing she did was run the card through a card scanner, so that she had a copy of the credit card.  This was the first time that I have seen a card scanned.  Then they proceeded to swipe the card, which failed.  Then the put the card in a garbage bag and tried many additional times.  Then she went and wrapped the card in receipt paper and the card finally worked.  Please note, this card was used prior to and after check in with different vendors with no issues, but hey, we are finally checked in.  I am told that there is only one entrance, which was through the lobby, there was no elevators, so we would need to come in, walk to the end of the first floor hallway and then walk up stairs to the second floor where we would find our room.  This was a problem.  I booked online.  In the notes section, I clearly stated that the room must be on the 1st floor as my wife is having...This was our first stay at this hotel and we were pleasantly surprised when we arrived.  The hotel appears nice and the rate was reasonable.  Check in: Check in was quick.  I was asked for my credit card, however, the person checking me in had not given me the total before asking for payment.  The total was correct, so I gave her my credit card.  The first thing she did was run the card through a card scanner, so that she had a copy of the credit card.  This was the first time that I have seen a card scanned.  Then they proceeded to swipe the card, which failed.  Then the put the card in a garbage bag and tried many additional times.  Then she went and wrapped the card in receipt paper and the card finally worked.  Please note, this card was used prior to and after check in with different vendors with no issues, but hey, we are finally checked in.  I am told that there is only one entrance, which was through the lobby, there was no elevators, so we would need to come in, walk to the end of the first floor hallway and then walk up stairs to the second floor where we would find our room.  This was a problem.  I booked online.  In the notes section, I clearly stated that the room must be on the 1st floor as my wife is having knee issues and walking up the stairs wasn't an option.  The clerk, a little upset, explains that "they don't see the notes or special requests sections on"The room was clean, which is a big plus in our eyes.  We got settled in and then noticed the first problem, the valve inside the commode was only dripping after each flush, so it could take up to 30 minutes to refill the tank.  This was going to be a problem, but now it is after 10PM, so we opt to wait until morning to have the issue addressed.The next issue was the mini refrigerator.  The refrigerator kept everything cool, however, at night it would start rattling.  I'm not sure why it only happened at night, it was loud enough to bother us.The next issue was with the restroom door.  This was a nice, sturdy door, however, the steel frame was intentionally broken on the upper right hand corner because the foundation had shifted and the door would no longer close.  The door swings open unless it is closed.  If you try to close the door, it makes a loud squeaking sound.  This is loud enough to wake anyone in the room who is sleeping.The next morning, we slept in until 9:00 AM, when House Keeping knocked on the door.  We had not planned on sleeping in this late.  We missed out on breakfast because we over slept.  As a side note here, House Keeping did service the room.  The strange thing is that they took the all of the towels, as they were dirty, but they didn't replace them with clean towels.I went to the front desk and explained the issue with the commode.  About 10 minutes later, a handy man arrived at the room.  He was holding a plumbing snake.  I explained that commode was not clogged, but rather the tank valve was broken and filling slowly.  This fell on deaf ears and he did not speak English.  He propped the snake up against the wall, which is exactly what you want to see.  He went down the hall and came back with the lady from House Keeping.  She comes into the room and I explained the same thing to her, to which she replies, "No English."  So, I download a translator app and show her the translated text and she says ok, someone will come right back.  We headed out to the Waffle House and had an awesome breakfast and we headed out for a couple of hours.  We returned early afternoon and the commode had not been fixed.  I went back to the front desk and explained that it was still broken, the person behind the counter did not know anything about it and said nothing was turned over to her.  So, she said someone would come down to fix the issue in a few minutes.  We left to have dinner with friends.  After returning, yes, you guessed it, nothing had been done.  Disappointed and tired, we just crashed for the day.The following morning we went to breakfast at 8:00 AM.  Breakfast I was told Breakfast was served from 6-9 AM, this is not correct.  The room is open from 6-9AM, but the food is not refreshed.  They were out of scrambled eggs, so I asked if we could get some more and the answer was no, eggs are made one time per day and once they are gone, they are gone.  So I moved on to a Texas Waffle.  Once the waffle was done I noticed that the syrup was out.  Expecting to be told that I was SOL, I went to the front desk and asked if we could have more.  To my surprise, the answer was yes, the clerk said that he would bring some out.  After 15 minutes, I gave up on breakfast at the restaurant. On the way out, I stopped by the front desk to bring it up again.  No one was there and so I rang the bell.  The clerk comes out from the back and I explain the that no one has been by and this is the second day.  She said she didn't know anything about it, but she would come down after she ate her lunch.  We heading out to a wedding and when we return, yep you guessed it again, nothing.  I went back to the front desk and it was the same clerk.  She was helping another guest and, for some reason, asked him to wait while she helped me.  I explained that she didn't fix the commode like she said she would.  She admitted that she had forgotten and would be down after she helped this guest.  I didn't budge, I just stood there, staring at her.  She asked if there was anything else, so I responded "Yeah, what room am I in?"  In this conversation I had not shared my room number, but she committed again to come to the room after helping the other guest.  She was unable to recall my room number, so I gave her my room number again.My Wife was furious.  So she called customer service, which was just as worthless as the front desk.  However, the Clerk showed up almost immediately.  She comes in and I explain the problem again, she pulls on the float for a few minutes, then she says she'll come right back.  She returns about 10 minutes later, the current time is 4PM, and she says that they don't have the valve and so they are going to move us to a new room.  Of course this new room is on the 2nd floor.  I explained that in 12 hours we'll be getting ready to check out of the hotel, we don't want to switch room on the last night.  Besides, there is a Lowes and Home Depot less than 10 minutes away.  I know that's not how this works, but still, the real deal is that they didn't have anyone to fix it so late in the day because they dropped the ball for two days.  No, we're good, we will just stay here.  The Clerk says she will see if there is some type of credit we can get and I said ok.  We heard nothing back that night.The next morning, instead of an easy check out, I waited at the front desk for 20 minutes to check out.  During this time I ask the Clerk about the possible credit and she looks online and there are now notes about the commode.  She says she has to call her Manager to get the authorization and asks me to hold on.  She speaks to the Manager in front of me in Spanish and finally she asks for the credit card that was used at check in time.  Of course, this is my Wife's card, who has been waiting patiently in the car for the last 20 minutes.  I went and retrieved the credit card and then I was handed a receipt that stated they were refunding $46.  I had no communication on what was being refunded.  I have no idea how they came up with the $46.  I waited until we received confirmation of this credit before posting this review.  As a side note here, if I would have used the easy checked out, I would not have even received the mere $46.To recap, if we had no issues with our room, we would have a positive rating for this hotel.  However, the combination of room problems, communication problem and customer service issues made it impossible to give this hotel any type of positive rating.We also wanted to visit the pool.  The pool is much smaller than it looks in the pictures, but we didn't get to go in the pool area.  In our three day stay, we only had one time that we could have checked it out, but it was closed because it "needed to be filled."The free wifi was a plus, however, all of our devices were bumped frequently.  I'm not sure what that issue was about, but we wanted all of our focus to be on something important, the commode.  I videoed the door and the commode issues, but we can't upload videos here.MoreShow less</t>
   </si>
   <si>
     <t>July 2015</t>
@@ -727,13 +682,10 @@
   <si>
     <t>This was our first stay at this hotel and we were pleasantly surprised when we arrived.  
 The hotel appears nice and the rate was reasonable.  
-Check in: Check in was quick.  I was asked for my credit card, however, the person checking me in had not given me the total before asking for payment.  The total was correct, so I gave her my credit card.  The first thing she did was run the card through a card scanner, so that she had a copy of the credit card.  This was the first time that I have seen a card scanned.  Then they proceeded to swipe the card, which failed.  Then the put the card in a garbage bag and tried many additional times.  Then she went and wrapped the card in receipt paper and the card finally worked.  Please note, this card was used prior to and after check in with different vendors with no issues, but hey, we are finally checked in.  I am told that there is only one entrance, which was through the lobby, there was no elevators, so we would need to come in, walk to the end of the first floor hallway and then walk up stairs to the second floor where we would find our room.  This was a problem.  I booked online.  In the notes section, I clearly stated that the room must be on the 1st floor as my wife is having...This was our first stay at this hotel and we were pleasantly surprised when we arrived.  The hotel appears nice and the rate was reasonable.  Check in: Check in was quick.  I was asked for my credit card, however, the person checking me in had not given me the total before asking for payment.  The total was correct, so I gave her my credit card.  The first thing she did was run the card through a card scanner, so that she had a copy of the credit card.  This was the first time that I have seen a card scanned.  Then they proceeded to swipe the card, which failed.  Then the put the card in a garbage bag and tried many additional times.  Then she went and wrapped the card in receipt paper and the card finally worked.  Please note, this card was used prior to and after check in with different vendors with no issues, but hey, we are finally checked in.  I am told that there is only one entrance, which was through the lobby, there was no elevators, so we would need to come in, walk to the end of the first floor hallway and then walk up stairs to the second floor where we would find our room.  This was a problem.  I booked online.  In the notes section, I clearly stated that the room must be on the 1st floor as my wife is having knee issues and walking up the stairs wasn't an option.  The clerk, a little upset, explains that "they don't see the notes or special requests sections on"The room was clean, which is a big plus in our eyes.  We got settled in and then noticed the first problem, the valve inside the commode was only dripping after each flush, so it could take up to 30 minutes to refill the tank.  This was going to be a problem, but now it is after 10PM, so we opt to wait until morning to have the issue addressed.The next issue was the mini refrigerator.  The refrigerator kept everything cool, however, at night it would start rattling.  I'm not sure why it only happened at night, it was loud enough to bother us.The next issue was with the restroom door.  This was a nice, sturdy door, however, the steel frame was intentionally broken on the upper right hand corner because the foundation had shifted and the door would no longer close.  The door swings open unless it is closed.  If you try to close the door, it makes a loud squeaking sound.  This is loud enough to wake anyone in the room who is sleeping.The next morning, we slept in until 9:00 AM, when House Keeping knocked on the door.  We had not planned on sleeping in this late.  We missed...More</t>
-  </si>
-  <si>
-    <t>Aaahrrahlee👢💙</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r286921692-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+Check in: Check in was quick.  I was asked for my credit card, however, the person checking me in had not given me the total before asking for payment.  The total was correct, so I gave her my credit card.  The first thing she did was run the card through a card scanner, so that she had a copy of the credit card.  This was the first time that I have seen a card scanned.  Then they proceeded to swipe the card, which failed.  Then the put the card in a garbage bag and tried many additional times.  Then she went and wrapped the card in receipt paper and the card finally worked.  Please note, this card was used prior to and after check in with different vendors with no issues, but hey, we are finally checked in.  I am told that there is only one entrance, which was through the lobby, there was no elevators, so we would need to come in, walk to the end of the first floor hallway and then walk up stairs to the second floor where we would find our room.  This was a problem.  I booked online.  In the notes section, I clearly stated that the room must be on the 1st floor as my wife is having...This was our first stay at this hotel and we were pleasantly surprised when we arrived.  The hotel appears nice and the rate was reasonable.  Check in: Check in was quick.  I was asked for my credit card, however, the person checking me in had not given me the total before asking for payment.  The total was correct, so I gave her my credit card.  The first thing she did was run the card through a card scanner, so that she had a copy of the credit card.  This was the first time that I have seen a card scanned.  Then they proceeded to swipe the card, which failed.  Then the put the card in a garbage bag and tried many additional times.  Then she went and wrapped the card in receipt paper and the card finally worked.  Please note, this card was used prior to and after check in with different vendors with no issues, but hey, we are finally checked in.  I am told that there is only one entrance, which was through the lobby, there was no elevators, so we would need to come in, walk to the end of the first floor hallway and then walk up stairs to the second floor where we would find our room.  This was a problem.  I booked online.  In the notes section, I clearly stated that the room must be on the 1st floor as my wife is having knee issues and walking up the stairs wasn't an option.  The clerk, a little upset, explains that "they don't see the notes or special requests sections on"The room was clean, which is a big plus in our eyes.  We got settled in and then noticed the first problem, the valve inside the commode was only dripping after each flush, so it could take up to 30 minutes to refill the tank.  This was going to be a problem, but now it is after 10PM, so we opt to wait until morning to have the issue addressed.The next issue was the mini refrigerator.  The refrigerator kept everything cool, however, at night it would start rattling.  I'm not sure why it only happened at night, it was loud enough to bother us.The next issue was with the restroom door.  This was a nice, sturdy door, however, the steel frame was intentionally broken on the upper right hand corner because the foundation had shifted and the door would no longer close.  The door swings open unless it is closed.  If you try to close the door, it makes a loud squeaking sound.  This is loud enough to wake anyone in the room who is sleeping.The next morning, we slept in until 9:00 AM, when House Keeping knocked on the door.  We had not planned on sleeping in this late.  We missed out on breakfast because we over slept.  As a side note here, House Keeping did service the room.  The strange thing is that they took the all of the towels, as they were dirty, but they didn't replace them with clean towels.I went to the front desk and explained the issue with the commode.  About 10 minutes later, a handy man arrived at the room.  He was holding a plumbing snake.  I explained that commode was not clogged, but rather the tank valve was broken and filling slowly.  This fell on deaf ears and he did not speak English.  He propped the snake up against the wall, which is exactly what you want to see.  He went down the hall and came back with the lady from House Keeping.  She comes into the room and I explained the same thing to her, to which she replies, "No English."  So, I download a translator app and show her the translated text and she says ok, someone will come right back.  We headed out to the Waffle House and had an awesome breakfast and we headed out for a couple of hours.  We returned early afternoon and the commode had not been fixed.  I went back to the front desk and explained that it was still broken, the person behind the counter did not know anything about it and said nothing was turned over to her.  So, she said someone would come down to fix the issue in a few minutes.  We left to have dinner with friends.  After returning, yes, you guessed it, nothing had been done.  Disappointed and tired, we just crashed for the day.The following morning we went to breakfast at 8:00 AM.  Breakfast I was told Breakfast was served from 6-9 AM, this is not correct.  The room is open from 6-9AM, but the food is not refreshed.  They were out of scrambled eggs, so I asked if we could get some more and the answer was no, eggs are made one time per day and once they are gone, they are gone.  So I moved on to a Texas Waffle.  Once the waffle was done I noticed that the syrup was out.  Expecting to be told that I was SOL, I went to the front desk and asked if we could have more.  To my surprise, the answer was yes, the clerk said that he would bring some out.  After 15 minutes, I gave up on breakfast at the restaurant. On the way out, I stopped by the front desk to bring it up again.  No one was there and so I rang the bell.  The clerk comes out from the back and I explain the that no one has been by and this is the second day.  She said she didn't know anything about it, but she would come down after she ate her lunch.  We heading out to a wedding and when we return, yep you guessed it again, nothing.  I went back to the front desk and it was the same clerk.  She was helping another guest and, for some reason, asked him to wait while she helped me.  I explained that she didn't fix the commode like she said she would.  She admitted that she had forgotten and would be down after she helped this guest.  I didn't budge, I just stood there, staring at her.  She asked if there was anything else, so I responded "Yeah, what room am I in?"  In this conversation I had not shared my room number, but she committed again to come to the room after helping the other guest.  She was unable to recall my room number, so I gave her my room number again.My Wife was furious.  So she called customer service, which was just as worthless as the front desk.  However, the Clerk showed up almost immediately.  She comes in and I explain the problem again, she pulls on the float for a few minutes, then she says she'll come right back.  She returns about 10 minutes later, the current time is 4PM, and she says that they don't have the valve and so they are going to move us to a new room.  Of course this new room is on the 2nd floor.  I explained that in 12 hours we'll be getting ready to check out of the hotel, we don't want to switch room on the last night.  Besides, there is a Lowes and Home Depot less than 10 minutes away.  I know that's not how this works, but still, the real deal is that they didn't have anyone to fix it so late in the day because they dropped the ball for two days.  No, we're good, we will just stay here.  The Clerk says she will see if there is some type of credit we can get and I said ok.  We heard nothing back that night.The next morning, instead of an easy check out, I waited at the front desk for 20 minutes to check out.  During this time I ask the Clerk about the possible credit and she looks online and there are now notes about the commode.  She says she has to call her Manager to get the authorization and asks me to hold on.  She speaks to the Manager in front of me in Spanish and finally she asks for the credit card that was used at check in time.  Of course, this is my Wife's card, who has been waiting patiently in the car for the last 20 minutes.  I went and retrieved the credit card and then I was handed a receipt that stated they were refunding $46.  I had no communication on what was being refunded.  I have no idea how they came up with the $46.  I waited until we received confirmation of this credit before posting this review.  As a side note here, if I would have used the easy checked out, I would not have even received the mere $46.To recap, if we had no issues with our room, we would have a positive rating for this hotel.  However, the combination of room problems, communication problem and customer service issues made it impossible to give this hotel any type of positive rating.We also wanted to visit the pool.  The pool is much smaller than it looks in the pictures, but we didn't get to go in the pool area.  In our three day stay, we only had one time that we could have checked it out, but it was closed because it "needed to be filled."The free wifi was a plus, however, all of our devices were bumped frequently.  I'm not sure what that issue was about, but we wanted all of our focus to be on something important, the commode.  I videoed the door and the commode issues, but we can't upload videos here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r286921692-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>286921692</t>
@@ -748,10 +700,7 @@
     <t>My boyfriend and I came to our hometown to visit our family for a week and this motel had somewhat reasonable weekly rates so we stayed there. They offer complimentary breakfast in the morning which I must admit was pretty good. Housekeeping is very friendly and it's located right off highway 635 which is very convenient.</t>
   </si>
   <si>
-    <t>lissalou06</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r279387013-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r279387013-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>279387013</t>
@@ -769,10 +718,7 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>Guðmundur G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r274215496-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r274215496-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>274215496</t>
@@ -790,10 +736,7 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>Bryan D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r261461975-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r261461975-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>261461975</t>
@@ -814,10 +757,7 @@
     <t>The hotel is in a decent location with lots of food choices within a reasonable distance.  The price was very competitive, unfortunately you get what you paid for.  My baby found food from a previous occupant which was disturbing, otherwise it was decently clean.  Two towels for a double bed room.  The iron is attached to the ironing board making it unwieldy, but at least there was an iron I guess.Although they promise breakfast, assume no breakfast.  The eggs were gone by 8 am (breakfast goes until 9.)  They wouldn't make more, said it takes too long (scrambled eggs).  The next day they didn't even offer eggs, and had just left the muffins and such that had been left over from the previous morning.The pool heater was working but make sure you are supervising your kids closely.  The emergency phone in the pool area to call out was disconnected and in poor condition.More</t>
   </si>
   <si>
-    <t>Mildred A</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r245170824-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r245170824-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>245170824</t>
@@ -838,10 +778,7 @@
     <t>I work for a Wyndham franchise and was told that if I made a reservation through my portal on the Internet that the Wyndham motels and hotels would honor what they said in there paperwork of  a employee discount and this 2x' in the last month that the motels in mesquite texas do not honor the employee discount from windham if you are an employee you should get some kind of discount days inn did not so makes you think they honor anything they say I will never stay at days inn in mesquite ever even if they were the last motel in Texas very disappointed in the staff at that motel.More</t>
   </si>
   <si>
-    <t>Fletcher A</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r240285173-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r240285173-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>240285173</t>
@@ -859,10 +796,7 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Angela R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r237453560-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r237453560-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>237453560</t>
@@ -883,10 +817,7 @@
     <t>Live in the Dallas area.  After a big storm, I went there to stay because my electricity had been out.  Not only did they charge me $101 for a night stay, but no iron in room.  Ask for an iron and was told "we don't have one."  Had to go to work wrinkled.  Made a complaint.  Management never called back until I called the corporate office.  Manager had staff call and offer me 25% back on room rate.  I told them to keep it and buy an iron for the room.  They offered me 25% back which is the additional price they charged me.  They will overcharge you and dismiss your complaints until you call the corporate office.  Even in a storm!!!!!  Next, I will try the Motel 6 next door.More</t>
   </si>
   <si>
-    <t xml:space="preserve">Erulase </t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r224181399-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r224181399-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>224181399</t>
@@ -901,10 +832,7 @@
     <t xml:space="preserve">I was staying with my father and the front desk lady was so rude and became even more rude when I had two guest come over just to swim for the afternoon. She kept telling us no but then kept changing her words around and was so confusing. We just left since she was to hard to work with. The bathrooms are also terrible and the rooms smell like poop.  </t>
   </si>
   <si>
-    <t>Betty H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r201617366-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r201617366-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>201617366</t>
@@ -922,10 +850,7 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>nanapsmith</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r196218021-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r196218021-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>196218021</t>
@@ -943,10 +868,7 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Search M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r187747503-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r187747503-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>187747503</t>
@@ -967,10 +889,7 @@
     <t>My buddy made a reservation at hotel.com for us at this motel when we found ourselves too tired to make it back to Austin. I noticed the LONG disclaimer at the check-in desk which ended with 'no refund'. We asked for a no smoking room, which it might have been, but the hallway smelled of smoke. He told us that it was the last room available in the motel. The first problem was the phone with no dial tone. Then the TV remote wouldn't work. I went to the front desk and complained. The clerk gave me another one and told me that I should jiggle the telephone cables to see if there was a loose connection. I tried his suggestions with no change; the new remote also failed to change the one channel I was able to get on the television (something about naked survivalists in Alaska...maybe. I couldn't turn up the volume either.) I went back to the front desk where I believe the clerk took the remote from me, went to the back room with it, and brought it right back to me. After yet another trip to the front desk with the remote by my buddy and a request for a refund, we decided that it wasn't comfortable. He made a deal with hotel.com for the price of the room and we drove home.More</t>
   </si>
   <si>
-    <t>Dina G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r177578263-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r177578263-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>177578263</t>
@@ -979,10 +898,7 @@
     <t>09/17/2013</t>
   </si>
   <si>
-    <t>linawatkins86</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r166213523-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r166213523-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>166213523</t>
@@ -1000,10 +916,7 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>Trent S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r166110598-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r166110598-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>166110598</t>
@@ -1021,10 +934,7 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Lora R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r160613294-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r160613294-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>160613294</t>
@@ -1042,10 +952,7 @@
     <t>To start off the front desk person was very rude during check-in. Walking to the room I noticed the halls reeked of cigarette smoke. Entered the room, it was burning up, turned on the AC and a musty/funky smell came out of the AC. I was just going to deal with it since I just needed some sleep. Got into bed and the covers were itchy. Still, I was going to deal with it. THEN! Out pops the largest beetle I have ever seen...IN THE BED! Caught the beetle for proof to show to the front desk person, they wanted to put me in another room, and I refused. The front desk was very irritated and NEVER OFFERED AN APOLOGY! I called the online booking site and they refunded my money and APOLOGIZED. Also the only vending machine and ice machine is on the first floor and there is no elevator. I wish there were a "0" rating because that would be more appropriate for this hotel.More</t>
   </si>
   <si>
-    <t>Cristy D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r155298061-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r155298061-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>155298061</t>
@@ -1063,10 +970,7 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Georgia Marie S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r154546424-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r154546424-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>154546424</t>
@@ -1081,10 +985,7 @@
     <t xml:space="preserve">If I decide to stay in another hotel then the Days Inn would be that place. This place is nice , neat and clean. The hotel staff was great , they are alway's there for anything that you may need for you room. There are good eating places near by, they are so close that you can walk to them . The shopping mall right off the highway 635N and there are other shopping areas that are close by ad well. </t>
   </si>
   <si>
-    <t>Denise M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r153367621-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r153367621-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>153367621</t>
@@ -1105,10 +1006,7 @@
     <t>Stayed at two different Wyndham hotels during this trip. The first had great reviews and I do not know where they came from... it was filthy and just plain gross.The Days Inn Mesquite was surface clean but looks like deep cleaning is not on the rotation. First night we killed three roaches, fortunately, after that we did not see any more. Stayed at this same hotel several years ago and it appears nothing has been upgraded since then... actually things have been down-graded! Continental breakfast left a lot to be desired -- very little to choose from and coffee was room temp most mornings. They even had salt &amp; pepper packets out and not one item that would require seasoning. On the positive side -- staff was friendly and overall stay was comfortable.More</t>
   </si>
   <si>
-    <t>stacy53</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r149513687-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r149513687-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>149513687</t>
@@ -1126,10 +1024,7 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>Judy M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r144400525-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r144400525-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>144400525</t>
@@ -1150,10 +1045,7 @@
     <t>The room was, at first glance, clean and not bad at all.  We thought we got a bargain.  Then the longer we stayed the more we noticed:  the coffee pot was filthy, the room was a little shabby and worn (holes/patches in wall, bathroom fixtures had seen better days, lamp shades needed to be replaced), ironing board was really dirty, the bathtub did not drain properly, the toilet did not flush without holding the handle down for a minute, some of the towels were stained, the WORST breakfast we ever had (only had once, then went elsewhere on the other days), the coffee (even when fresh brewed was COLD), the spread for breakfast was not very appetizing @ all, and tasted even worse, and the worst part, I killed SEVERAL roaches in our room. But, on the upside, the staff were very friendly and helpful and the bed was comfortable. Wished the rooms and breakfast matched the service and hospitality!More</t>
   </si>
   <si>
-    <t>Travelceej</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r121394284-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r121394284-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>121394284</t>
@@ -1168,10 +1060,7 @@
     <t xml:space="preserve">Clean rooms, good parking, very friendly staff. Overall great. Would totally recommend! </t>
   </si>
   <si>
-    <t>Yandelluny</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r116172437-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r116172437-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>116172437</t>
@@ -1186,10 +1075,7 @@
     <t xml:space="preserve">It was a great hotel in a good location a lot of different places to eat around the area and a rental center . Good place </t>
   </si>
   <si>
-    <t>TEJ7</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r115994084-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r115994084-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>115994084</t>
@@ -1207,10 +1093,7 @@
     <t>July 2011</t>
   </si>
   <si>
-    <t>unhappy1970</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r110544175-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r110544175-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>110544175</t>
@@ -1228,10 +1111,7 @@
     <t>May 2011</t>
   </si>
   <si>
-    <t>goingplaces1973</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r83886758-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r83886758-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>83886758</t>
@@ -1249,10 +1129,7 @@
     <t>October 2010</t>
   </si>
   <si>
-    <t>miraclepie</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r71993218-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r71993218-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>71993218</t>
@@ -1273,10 +1150,7 @@
     <t>We were going to see the Mesquite Rodeo, so in terms of location it was fantastic. It was also surrounded by many different restaurants, so you had lots of choice for food. However, I'll agree with another poster that it didn't have an elevator, which I was a bit perturbed by, as we are paying $70+ the breakfast was alright, a selection of cold cereals, toast, and donuts... The rooms themselves were very clean, and big. It almost looks like the lobby had a great deal of refurbishments, but they hadn't done the hallways or the rooms. The hallways were quite shabby. I also didn't like the location of their free internet booth in the lobby. It was much too high, making it difficult to type anything on. The hairdryer as well didn't have a back on it, so my hair got stuck a few times. The front desk staff were excellent, they printed out directions from mapquest for us, and were overall very friendly.More</t>
   </si>
   <si>
-    <t>terrysol</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r37464300-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r37464300-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>37464300</t>
@@ -1294,10 +1168,7 @@
     <t>August 2009</t>
   </si>
   <si>
-    <t>TeeRoe</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r30766899-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r30766899-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>30766899</t>
@@ -1318,10 +1189,7 @@
     <t>I stayed there for 4 days and three nights that I'll never get back! This place was sorta like the, "Twilight Zone". The guy who checked me in was scary-weird. Not a "people person". And he doesn't listen. I must have said I wanted a non-smoking room 3 times before he got it! The first night management knocks HARD on my door, and woke me up. I got a follow-up phone call saying they needed to get inside my room the check something. Not sure what they were looking for! I refused to let them in. The WiFi was spotty, weak, (if your lucky to even get the signal) and they turned if off after 7:00pm each night. Basically useless! The room (as well as the entire hotel) needed a 21st century makeover, and it smelled! The fire detection equipment inside the room wasn't even totally installed. The TV reception was snowy on 1/3 of the channels. They didn't clean my room on one day. And the next day all they did was make-up my bed, empty the trash, and gave me new towels. They never vacuumed, etc. There is no bar or restaurant in the facility, or even nearby. Never again! I'll never even stay in another Days Inn, anywhere!More</t>
   </si>
   <si>
-    <t>dbolt</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r10004643-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r10004643-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>10004643</t>
@@ -1348,10 +1216,7 @@
 He quickly offered to give us the "jacuzzi" room, which was non-smoking (I guess they did have some left?). It was on the first floor, and had a big jacuzzi in the room, which sounds romantic, but  all it did was make...We booked the Day's Inn in Mequite on travelocity with our airfare and car. We had a nearby conference and that hotel was full. We thought that at $60 a night it was going to be budget, but not bottom of the food chain.Yikes...All they had were smoking rooms (eventhough we had asked for NON-smoking on Travelocity) The motel said that Travelocity made that mistake commonly?So we tried the first room, up a  flight a stairs. We had to get the manager to work the card reader to open the door, so he was there when we all entered...the very smoky room. He offered to spray it with room freshener, but he warned that maybe we should step outside, since it was going to be strong. All it did was cover the smoke with foul sticky odor.  BUT the capper was that the new room's toilet was, uhm...full, and the manager tried flushing and the handle did not work! Mind you, we had only just walked into the room, so who knows how long the "deposit" had been in the toilet. I would have assumed that would have been a large item on the maid's checklist?He quickly offered to give us the "jacuzzi" room, which was non-smoking (I guess they did have some left?). It was on the first floor, and had a big jacuzzi in the room, which sounds romantic, but  all it did was make the carpet smell musty!  Toilet worked fine, but the sink would not drain.  Back to the front desk and on the phone to other places nearby. We ended up at the Courtyard Marriott down the road, which was very nice and only $103. I guess you get what you pay for.More</t>
   </si>
   <si>
-    <t>j_kelly76</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r6606772-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r6606772-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>6606772</t>
@@ -1369,10 +1234,7 @@
     <t>January 2007</t>
   </si>
   <si>
-    <t>Lovetotravelthebeach</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r5317533-Days_Inn_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d124456-r5317533-Days_Inn_by_Wyndham_Mesquite_Rodeo_TX-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>5317533</t>
@@ -1895,47 +1757,43 @@
       <c r="A2" t="n">
         <v>38977</v>
       </c>
-      <c r="B2" t="n">
-        <v>129723</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1949,466 +1807,420 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38977</v>
       </c>
-      <c r="B3" t="n">
-        <v>129724</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38977</v>
       </c>
-      <c r="B4" t="n">
-        <v>99588</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38977</v>
       </c>
-      <c r="B5" t="n">
-        <v>129725</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>61</v>
-      </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38977</v>
       </c>
-      <c r="B6" t="n">
-        <v>129726</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38977</v>
       </c>
-      <c r="B7" t="n">
-        <v>3788</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38977</v>
       </c>
-      <c r="B8" t="n">
-        <v>129727</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38977</v>
       </c>
-      <c r="B9" t="n">
-        <v>129728</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
         <v>94</v>
       </c>
-      <c r="K9" t="s">
-        <v>101</v>
-      </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
         <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2416,70 +2228,64 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38977</v>
       </c>
-      <c r="B10" t="n">
-        <v>129729</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" t="s">
-        <v>108</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
         <v>2</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2487,125 +2293,133 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38977</v>
       </c>
-      <c r="B11" t="n">
-        <v>18852</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38977</v>
       </c>
-      <c r="B12" t="n">
-        <v>129730</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
       <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2613,125 +2427,114 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38977</v>
       </c>
-      <c r="B13" t="n">
-        <v>129731</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="O13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38977</v>
       </c>
-      <c r="B14" t="n">
-        <v>129732</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2742,124 +2545,120 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38977</v>
       </c>
-      <c r="B15" t="n">
-        <v>23853</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" t="s">
-        <v>143</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
         <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
-      <c r="Y15" t="s">
-        <v>144</v>
-      </c>
+      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38977</v>
       </c>
-      <c r="B16" t="n">
-        <v>129733</v>
-      </c>
-      <c r="C16" t="s">
-        <v>145</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2870,133 +2669,119 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38977</v>
       </c>
-      <c r="B17" t="n">
-        <v>7595</v>
-      </c>
-      <c r="C17" t="s">
-        <v>152</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38977</v>
       </c>
-      <c r="B18" t="n">
-        <v>7041</v>
-      </c>
-      <c r="C18" t="s">
-        <v>158</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3004,383 +2789,357 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38977</v>
       </c>
-      <c r="B19" t="n">
-        <v>129734</v>
-      </c>
-      <c r="C19" t="s">
-        <v>166</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="J19" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38977</v>
       </c>
-      <c r="B20" t="n">
-        <v>129735</v>
-      </c>
-      <c r="C20" t="s">
-        <v>172</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="J20" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38977</v>
       </c>
-      <c r="B21" t="n">
-        <v>129736</v>
-      </c>
-      <c r="C21" t="s">
-        <v>180</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>186</v>
-      </c>
-      <c r="O21" t="s">
-        <v>75</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38977</v>
       </c>
-      <c r="B22" t="n">
-        <v>129737</v>
-      </c>
-      <c r="C22" t="s">
-        <v>187</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38977</v>
       </c>
-      <c r="B23" t="n">
-        <v>129738</v>
-      </c>
-      <c r="C23" t="s">
-        <v>193</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38977</v>
       </c>
-      <c r="B24" t="n">
-        <v>129739</v>
-      </c>
-      <c r="C24" t="s">
-        <v>200</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3388,137 +3147,127 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38977</v>
       </c>
-      <c r="B25" t="n">
-        <v>129740</v>
-      </c>
-      <c r="C25" t="s">
-        <v>207</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38977</v>
       </c>
-      <c r="B26" t="n">
-        <v>129741</v>
-      </c>
-      <c r="C26" t="s">
-        <v>214</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3526,127 +3275,129 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38977</v>
       </c>
-      <c r="B27" t="n">
-        <v>129742</v>
-      </c>
-      <c r="C27" t="s">
-        <v>221</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38977</v>
       </c>
-      <c r="B28" t="n">
-        <v>129743</v>
-      </c>
-      <c r="C28" t="s">
-        <v>228</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="n">
         <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3654,54 +3405,50 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38977</v>
       </c>
-      <c r="B29" t="n">
-        <v>129744</v>
-      </c>
-      <c r="C29" t="s">
-        <v>236</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3715,115 +3462,113 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38977</v>
       </c>
-      <c r="B30" t="n">
-        <v>129745</v>
-      </c>
-      <c r="C30" t="s">
-        <v>242</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38977</v>
       </c>
-      <c r="B31" t="n">
-        <v>129746</v>
-      </c>
-      <c r="C31" t="s">
-        <v>249</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="O31" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3837,200 +3582,174 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38977</v>
       </c>
-      <c r="B32" t="n">
-        <v>110381</v>
-      </c>
-      <c r="C32" t="s">
-        <v>256</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="J32" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38977</v>
       </c>
-      <c r="B33" t="n">
-        <v>129747</v>
-      </c>
-      <c r="C33" t="s">
-        <v>264</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38977</v>
       </c>
-      <c r="B34" t="n">
-        <v>129748</v>
-      </c>
-      <c r="C34" t="s">
-        <v>272</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="J34" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="O34" t="s">
-        <v>75</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -4038,62 +3757,56 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38977</v>
       </c>
-      <c r="B35" t="n">
-        <v>1186</v>
-      </c>
-      <c r="C35" t="s">
-        <v>279</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="J35" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="K35" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="L35" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -4105,66 +3818,66 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38977</v>
       </c>
-      <c r="B36" t="n">
-        <v>129749</v>
-      </c>
-      <c r="C36" t="s">
-        <v>287</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="J36" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="K36" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+      <c r="N36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4172,67 +3885,59 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38977</v>
       </c>
-      <c r="B37" t="n">
-        <v>9044</v>
-      </c>
-      <c r="C37" t="s">
-        <v>293</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="O37" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
       </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>2</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>1</v>
@@ -4243,70 +3948,62 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38977</v>
       </c>
-      <c r="B38" t="n">
-        <v>129750</v>
-      </c>
-      <c r="C38" t="s">
-        <v>300</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="K38" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>306</v>
-      </c>
-      <c r="O38" t="s">
-        <v>62</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4314,66 +4011,62 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38977</v>
       </c>
-      <c r="B39" t="n">
-        <v>129751</v>
-      </c>
-      <c r="C39" t="s">
-        <v>307</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="K39" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="L39" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4385,132 +4078,133 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38977</v>
       </c>
-      <c r="B40" t="n">
-        <v>129752</v>
-      </c>
-      <c r="C40" t="s">
-        <v>315</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="J40" t="s">
-        <v>318</v>
-      </c>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+        <v>278</v>
+      </c>
+      <c r="K40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" t="s">
+        <v>280</v>
+      </c>
       <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>281</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
         <v>4</v>
       </c>
-      <c r="N40" t="s">
-        <v>306</v>
-      </c>
-      <c r="O40" t="s">
-        <v>62</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
       <c r="R40" t="n">
         <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38977</v>
       </c>
-      <c r="B41" t="n">
-        <v>129753</v>
-      </c>
-      <c r="C41" t="s">
-        <v>319</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="J41" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="K41" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4518,141 +4212,127 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38977</v>
       </c>
-      <c r="B42" t="n">
-        <v>129754</v>
-      </c>
-      <c r="C42" t="s">
-        <v>326</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="J42" t="s">
-        <v>329</v>
-      </c>
-      <c r="K42" t="s">
-        <v>330</v>
-      </c>
-      <c r="L42" t="s">
-        <v>331</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="O42" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
         <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
-      <c r="Y42" t="s">
-        <v>331</v>
-      </c>
+      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38977</v>
       </c>
-      <c r="B43" t="n">
-        <v>37001</v>
-      </c>
-      <c r="C43" t="s">
-        <v>333</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="J43" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="K43" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="O43" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4660,57 +4340,53 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38977</v>
       </c>
-      <c r="B44" t="n">
-        <v>129755</v>
-      </c>
-      <c r="C44" t="s">
-        <v>340</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="J44" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="K44" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
@@ -4731,66 +4407,66 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38977</v>
       </c>
-      <c r="B45" t="n">
-        <v>129756</v>
-      </c>
-      <c r="C45" t="s">
-        <v>347</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="J45" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="K45" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>297</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4798,70 +4474,66 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38977</v>
       </c>
-      <c r="B46" t="n">
-        <v>12875</v>
-      </c>
-      <c r="C46" t="s">
-        <v>353</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="J46" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="K46" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="L46" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4869,60 +4541,52 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38977</v>
       </c>
-      <c r="B47" t="n">
-        <v>129757</v>
-      </c>
-      <c r="C47" t="s">
-        <v>361</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="J47" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="K47" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="L47" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
-      <c r="N47" t="s">
-        <v>367</v>
-      </c>
-      <c r="O47" t="s">
-        <v>62</v>
-      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
         <v>4</v>
@@ -4932,7 +4596,7 @@
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4940,70 +4604,66 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38977</v>
       </c>
-      <c r="B48" t="n">
-        <v>5548</v>
-      </c>
-      <c r="C48" t="s">
-        <v>368</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="J48" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="K48" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="L48" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
         <v>2</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
         <v>2</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5011,51 +4671,51 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38977</v>
       </c>
-      <c r="B49" t="n">
-        <v>129758</v>
-      </c>
-      <c r="C49" t="s">
-        <v>376</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="J49" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="K49" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="L49" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>333</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
       <c r="P49" t="n">
         <v>5</v>
       </c>
@@ -5063,7 +4723,7 @@
         <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5078,66 +4738,66 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38977</v>
       </c>
-      <c r="B50" t="n">
-        <v>129759</v>
-      </c>
-      <c r="C50" t="s">
-        <v>382</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="J50" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="K50" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="L50" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>339</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
         <v>4</v>
       </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5145,60 +4805,56 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38977</v>
       </c>
-      <c r="B51" t="n">
-        <v>129760</v>
-      </c>
-      <c r="C51" t="s">
-        <v>388</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="J51" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="K51" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="L51" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
-      <c r="N51" t="s">
-        <v>394</v>
-      </c>
-      <c r="O51" t="s">
-        <v>75</v>
-      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
       <c r="P51" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
       <c r="S51" t="n">
         <v>5</v>
       </c>
@@ -5212,68 +4868,62 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38977</v>
       </c>
-      <c r="B52" t="n">
-        <v>129761</v>
-      </c>
-      <c r="C52" t="s">
-        <v>395</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="J52" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="K52" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s">
-        <v>401</v>
-      </c>
-      <c r="O52" t="s">
-        <v>62</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
-      </c>
-      <c r="R52" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5281,70 +4931,62 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38977</v>
       </c>
-      <c r="B53" t="n">
-        <v>129762</v>
-      </c>
-      <c r="C53" t="s">
-        <v>402</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="J53" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="O53" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>3</v>
-      </c>
-      <c r="R53" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5352,70 +4994,64 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>38977</v>
       </c>
-      <c r="B54" t="n">
-        <v>129763</v>
-      </c>
-      <c r="C54" t="s">
-        <v>409</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="J54" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="K54" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="O54" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="P54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>4</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5423,66 +5059,62 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>38977</v>
       </c>
-      <c r="B55" t="n">
-        <v>129764</v>
-      </c>
-      <c r="C55" t="s">
-        <v>417</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>419</v>
+        <v>364</v>
       </c>
       <c r="J55" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="K55" t="s">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s">
-        <v>422</v>
+        <v>367</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="O55" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
         <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
@@ -5494,70 +5126,66 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>422</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>38977</v>
       </c>
-      <c r="B56" t="n">
-        <v>129765</v>
-      </c>
-      <c r="C56" t="s">
-        <v>424</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="J56" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="K56" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>374</v>
+      </c>
+      <c r="O56" t="s">
+        <v>126</v>
+      </c>
+      <c r="P56" t="n">
         <v>2</v>
       </c>
-      <c r="N56" t="s">
-        <v>430</v>
-      </c>
-      <c r="O56" t="s">
-        <v>54</v>
-      </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
         <v>3</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5565,70 +5193,66 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>38977</v>
       </c>
-      <c r="B57" t="n">
-        <v>129766</v>
-      </c>
-      <c r="C57" t="s">
-        <v>432</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="J57" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="K57" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="O57" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5636,70 +5260,66 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>38977</v>
       </c>
-      <c r="B58" t="n">
-        <v>129767</v>
-      </c>
-      <c r="C58" t="s">
-        <v>440</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>442</v>
+        <v>383</v>
       </c>
       <c r="J58" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="K58" t="s">
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="L58" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>446</v>
+        <v>387</v>
       </c>
       <c r="O58" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5707,64 +5327,62 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>38977</v>
       </c>
-      <c r="B59" t="n">
-        <v>129768</v>
-      </c>
-      <c r="C59" t="s">
-        <v>447</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="J59" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="K59" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="L59" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>394</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
         <v>2</v>
       </c>
-      <c r="N59" t="s">
-        <v>453</v>
-      </c>
-      <c r="O59" t="s">
-        <v>75</v>
-      </c>
-      <c r="P59" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2</v>
-      </c>
-      <c r="R59" t="s"/>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
@@ -5776,7 +5394,139 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>454</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38977</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>396</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>397</v>
+      </c>
+      <c r="J60" t="s">
+        <v>398</v>
+      </c>
+      <c r="K60" t="s">
+        <v>399</v>
+      </c>
+      <c r="L60" t="s">
+        <v>400</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>401</v>
+      </c>
+      <c r="O60" t="s">
+        <v>90</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38977</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>402</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>403</v>
+      </c>
+      <c r="J61" t="s">
+        <v>404</v>
+      </c>
+      <c r="K61" t="s">
+        <v>405</v>
+      </c>
+      <c r="L61" t="s">
+        <v>406</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>407</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
